--- a/data/trans_orig/Barthel_r-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Barthel_r-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>317246</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>302557</v>
+        <v>302473</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>329649</v>
+        <v>329334</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8500944374168605</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8107335634936118</v>
+        <v>0.8105096113412037</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8833303079228055</v>
+        <v>0.8824850039731978</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>458</v>
@@ -765,19 +765,19 @@
         <v>461963</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>440164</v>
+        <v>439977</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>479533</v>
+        <v>480258</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7859861770130216</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.748897342526089</v>
+        <v>0.7485793096505665</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8158798447650334</v>
+        <v>0.8171133197951055</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>796</v>
@@ -786,19 +786,19 @@
         <v>779208</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>750980</v>
+        <v>753699</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>802179</v>
+        <v>801584</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8108831895092915</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7815074568327074</v>
+        <v>0.7843364360254222</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8347874147035731</v>
+        <v>0.8341678744087606</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>19943</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12896</v>
+        <v>12219</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>30017</v>
+        <v>29966</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05344037333326596</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03455620543754297</v>
+        <v>0.03274187579363057</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08043466257086698</v>
+        <v>0.08029582089455935</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>41</v>
@@ -836,19 +836,19 @@
         <v>43501</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>32574</v>
+        <v>32422</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>58550</v>
+        <v>59162</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0740123468503063</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05542236043601415</v>
+        <v>0.05516270706094222</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09961795645228198</v>
+        <v>0.1006582437968768</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>63</v>
@@ -857,19 +857,19 @@
         <v>63444</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>50358</v>
+        <v>48198</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>84271</v>
+        <v>79870</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0660230381637144</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05240496174609924</v>
+        <v>0.05015697192769452</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08769670197511151</v>
+        <v>0.08311700471754818</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>24907</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16799</v>
+        <v>17238</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>34975</v>
+        <v>35417</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.06674223885014796</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04501401655006036</v>
+        <v>0.04619167885732164</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09371990163913961</v>
+        <v>0.09490419337501521</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>48</v>
@@ -907,19 +907,19 @@
         <v>53531</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>40555</v>
+        <v>39878</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>69079</v>
+        <v>69480</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09107811699678646</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06900041484800669</v>
+        <v>0.06784833724132125</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1175316479851724</v>
+        <v>0.1182137021570104</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>75</v>
@@ -928,19 +928,19 @@
         <v>78439</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>63112</v>
+        <v>61605</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>98005</v>
+        <v>96217</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.08162706250696164</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06567700347352551</v>
+        <v>0.0641088744577759</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1019892381616162</v>
+        <v>0.1001283357794778</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>10254</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5475</v>
+        <v>4828</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17497</v>
+        <v>16985</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02747635587928978</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01467031081394684</v>
+        <v>0.01293782172252908</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0468846206248406</v>
+        <v>0.0455139741687557</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -978,19 +978,19 @@
         <v>25533</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16504</v>
+        <v>16531</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>36886</v>
+        <v>37392</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04344139049926109</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02807927054646913</v>
+        <v>0.02812647214721192</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06275777279320474</v>
+        <v>0.06361840097663037</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>34</v>
@@ -999,19 +999,19 @@
         <v>35787</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>25123</v>
+        <v>25911</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>49728</v>
+        <v>49974</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03724122746359392</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02614386068223769</v>
+        <v>0.02696438319645914</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05174918418923261</v>
+        <v>0.05200544972402676</v>
       </c>
     </row>
     <row r="8">
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5074</v>
+        <v>4213</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.002246594520435747</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01359685384009183</v>
+        <v>0.01128832378875836</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -1049,19 +1049,19 @@
         <v>3222</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9576</v>
+        <v>8294</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.005481968640624509</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.001525079829840814</v>
+        <v>0.001518395102199637</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01629185459904219</v>
+        <v>0.01411154663171947</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>5</v>
@@ -1070,19 +1070,19 @@
         <v>4060</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1119</v>
+        <v>899</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>11016</v>
+        <v>9061</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.004225482356438512</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.001164814916721964</v>
+        <v>0.000935435837977632</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01146428451831998</v>
+        <v>0.009429130372798531</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>81080</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>74170</v>
+        <v>75200</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>84601</v>
+        <v>84667</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.920496319302099</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8420410529091075</v>
+        <v>0.8537418369821107</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9604670806669779</v>
+        <v>0.9612191645977213</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>53</v>
@@ -1195,19 +1195,19 @@
         <v>54319</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>47509</v>
+        <v>47322</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>58788</v>
+        <v>58900</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8731315067187715</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.763657684664829</v>
+        <v>0.76066128676864</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9449629428212654</v>
+        <v>0.9467647528639427</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>134</v>
@@ -1216,19 +1216,19 @@
         <v>135399</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>126876</v>
+        <v>126954</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>141636</v>
+        <v>141698</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9008904878104356</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8441774646678192</v>
+        <v>0.8446976392476753</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9423861406954726</v>
+        <v>0.9427986601243915</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>4556</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1790</v>
+        <v>1808</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10424</v>
+        <v>10410</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05172384270743419</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02031930081670192</v>
+        <v>0.02052779222628612</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1183393811494185</v>
+        <v>0.1181853312360927</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7507</v>
+        <v>7889</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03928544697836991</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1206725896688522</v>
+        <v>0.1268084319388669</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>7</v>
@@ -1287,19 +1287,19 @@
         <v>7000</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3000</v>
+        <v>2852</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>13885</v>
+        <v>14151</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04657518746338279</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01996379254399765</v>
+        <v>0.01897595284142451</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09238478494315895</v>
+        <v>0.09415653651070868</v>
       </c>
     </row>
     <row r="12">
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5923</v>
+        <v>5250</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01858953505497834</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06724885621652717</v>
+        <v>0.05959898711642439</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -1337,19 +1337,19 @@
         <v>3394</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1098</v>
+        <v>1085</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8991</v>
+        <v>8959</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0545526356120621</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01765650558701191</v>
+        <v>0.01744159950302274</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1445293024371268</v>
+        <v>0.1440150607919226</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>5</v>
@@ -1358,19 +1358,19 @@
         <v>5031</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1899</v>
+        <v>1678</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>10787</v>
+        <v>10972</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03347582829639031</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01263273764419718</v>
+        <v>0.01116688130190409</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07177079585333991</v>
+        <v>0.07300285159782394</v>
       </c>
     </row>
     <row r="13">
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3984</v>
+        <v>4165</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.009190302935488504</v>
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04523431332297569</v>
+        <v>0.04728835225732087</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5129</v>
+        <v>5266</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01468850300910648</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08245165313002552</v>
+        <v>0.08464741055397669</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5358</v>
+        <v>7187</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01146618619716429</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03564964027366026</v>
+        <v>0.04782066951147524</v>
       </c>
     </row>
     <row r="14">
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5773</v>
+        <v>5945</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01834190768168999</v>
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09279912365366218</v>
+        <v>0.09556704143788211</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5710</v>
+        <v>5779</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.007592310232627089</v>
@@ -1504,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03798885450504076</v>
+        <v>0.03845109158922875</v>
       </c>
     </row>
     <row r="15">
@@ -1596,19 +1596,19 @@
         <v>37126</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>30642</v>
+        <v>31073</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>40226</v>
+        <v>40247</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9012446706675797</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7438526113718645</v>
+        <v>0.7543165108508176</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9765121724390261</v>
+        <v>0.9770128665778524</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>23</v>
@@ -1617,19 +1617,19 @@
         <v>22657</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17430</v>
+        <v>17801</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25688</v>
+        <v>25633</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8428601977451564</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6483992231299103</v>
+        <v>0.6622039286868211</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9556300563998603</v>
+        <v>0.9535635080087119</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>55</v>
@@ -1638,19 +1638,19 @@
         <v>59783</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>51040</v>
+        <v>52757</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>64261</v>
+        <v>64554</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.878190417022323</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7497661952261835</v>
+        <v>0.7749854802278329</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9439712401089158</v>
+        <v>0.9482822995129279</v>
       </c>
     </row>
     <row r="17">
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8971</v>
+        <v>8585</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06345829178252897</v>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.217782676671109</v>
+        <v>0.2084044497834027</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3751</v>
+        <v>3926</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03212405427453414</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1395378651399574</v>
+        <v>0.1460507055495184</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3</v>
@@ -1709,19 +1709,19 @@
         <v>3478</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>10421</v>
+        <v>9326</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05108535385689447</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01285781497541623</v>
+        <v>0.01278720094097969</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1530822896806944</v>
+        <v>0.1369986518098041</v>
       </c>
     </row>
     <row r="18">
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8383</v>
+        <v>6260</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03529703754989125</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2034904266051896</v>
+        <v>0.1519741386368814</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>3</v>
@@ -1762,16 +1762,16 @@
         <v>930</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>8206</v>
+        <v>8015</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1250157479803094</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03460435684024417</v>
+        <v>0.03460613644855891</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3052692527715092</v>
+        <v>0.2981793890241273</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>4</v>
@@ -1780,19 +1780,19 @@
         <v>4815</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1267</v>
+        <v>1258</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>10921</v>
+        <v>11270</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.07072422912078254</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01860888696094955</v>
+        <v>0.01847510815975809</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1604249116905632</v>
+        <v>0.1655539545815821</v>
       </c>
     </row>
     <row r="19">
@@ -1978,19 +1978,19 @@
         <v>435452</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>421055</v>
+        <v>418670</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>450348</v>
+        <v>447671</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.866629466775523</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8379776824867556</v>
+        <v>0.833229785300009</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8962752942964941</v>
+        <v>0.8909478235327777</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>534</v>
@@ -1999,19 +1999,19 @@
         <v>538939</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>514866</v>
+        <v>514436</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>559107</v>
+        <v>558410</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.796254873887873</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7606891421172306</v>
+        <v>0.7600539674311256</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8260521711858452</v>
+        <v>0.8250219555432539</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>985</v>
@@ -2020,19 +2020,19 @@
         <v>974391</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>946874</v>
+        <v>948531</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>998663</v>
+        <v>1000839</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.826239271918402</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8029068171393622</v>
+        <v>0.8043117519475036</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8468214609751848</v>
+        <v>0.8486664654168541</v>
       </c>
     </row>
     <row r="23">
@@ -2049,19 +2049,19 @@
         <v>27113</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>18603</v>
+        <v>19008</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>37710</v>
+        <v>38177</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.05396077315178482</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03702312157619465</v>
+        <v>0.03782886511196717</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.07505027362610489</v>
+        <v>0.07597828512111045</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>44</v>
@@ -2070,19 +2070,19 @@
         <v>46808</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>34776</v>
+        <v>34970</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>61978</v>
+        <v>61466</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.06915683933968085</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05137956607411982</v>
+        <v>0.05166710105279717</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.09156890637756268</v>
+        <v>0.09081325224470954</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>73</v>
@@ -2091,19 +2091,19 @@
         <v>73922</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>59305</v>
+        <v>56690</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>94732</v>
+        <v>89687</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.06268227404019051</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.05028757743608576</v>
+        <v>0.04807041423824835</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.08032858367633065</v>
+        <v>0.07605015829684007</v>
       </c>
     </row>
     <row r="24">
@@ -2120,19 +2120,19 @@
         <v>27999</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>19621</v>
+        <v>20064</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>38423</v>
+        <v>41248</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05572301280165718</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0390488169450838</v>
+        <v>0.03993060196178475</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07646791914878824</v>
+        <v>0.08209016428639954</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>54</v>
@@ -2141,19 +2141,19 @@
         <v>60285</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>46886</v>
+        <v>47001</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>78741</v>
+        <v>76922</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.08906871208952903</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06927097614682147</v>
+        <v>0.06944139620786875</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1163357313707864</v>
+        <v>0.1136486008506902</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>84</v>
@@ -2162,19 +2162,19 @@
         <v>88284</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>72121</v>
+        <v>71013</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>107854</v>
+        <v>108104</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07486115963306089</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06115499372098712</v>
+        <v>0.06021581891753416</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09145569183839956</v>
+        <v>0.09166704292612637</v>
       </c>
     </row>
     <row r="25">
@@ -2191,19 +2191,19 @@
         <v>11063</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5466</v>
+        <v>6326</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>18575</v>
+        <v>18223</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02201816811686558</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01087776431662796</v>
+        <v>0.01258900975498626</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0369678290931563</v>
+        <v>0.03626788328871255</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>24</v>
@@ -2212,19 +2212,19 @@
         <v>26446</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>17639</v>
+        <v>18312</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>38472</v>
+        <v>39238</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0390733023749504</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02606024990527614</v>
+        <v>0.02705570681607219</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05683999075486417</v>
+        <v>0.05797162689149164</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>36</v>
@@ -2233,19 +2233,19 @@
         <v>37510</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>26695</v>
+        <v>26826</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>50603</v>
+        <v>50319</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0318066467102429</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02263654788390839</v>
+        <v>0.02274721077509538</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04290879163246709</v>
+        <v>0.04266834458706989</v>
       </c>
     </row>
     <row r="26">
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4695</v>
+        <v>4237</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.001668579154169476</v>
@@ -2274,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.009344603514075659</v>
+        <v>0.008432470631009444</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -2283,19 +2283,19 @@
         <v>4363</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>10648</v>
+        <v>10309</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.006446272307966698</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.001704408055958046</v>
+        <v>0.001695432792472907</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01573178700912805</v>
+        <v>0.01523173440684728</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6</v>
@@ -2304,19 +2304,19 @@
         <v>5202</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1957</v>
+        <v>1964</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>12122</v>
+        <v>11824</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.004410647698103709</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.001659391702659119</v>
+        <v>0.001665218163453322</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01027925302333246</v>
+        <v>0.01002635188117631</v>
       </c>
     </row>
     <row r="27">
@@ -2647,19 +2647,19 @@
         <v>324319</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>305350</v>
+        <v>305976</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>342274</v>
+        <v>341696</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7826257780909064</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7368511586655371</v>
+        <v>0.7383625416209459</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8259558181753152</v>
+        <v>0.8245599293617589</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>402</v>
@@ -2668,19 +2668,19 @@
         <v>423990</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>400110</v>
+        <v>400252</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>448407</v>
+        <v>446796</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6681802734515991</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.630546929320601</v>
+        <v>0.6307694889070449</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7066583355124735</v>
+        <v>0.7041199450123057</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>703</v>
@@ -2689,19 +2689,19 @@
         <v>748308</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>716170</v>
+        <v>717952</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>778089</v>
+        <v>778164</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7133933956467844</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6827550974545565</v>
+        <v>0.6844534720701891</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.741784737934598</v>
+        <v>0.7418562381259478</v>
       </c>
     </row>
     <row r="5">
@@ -2718,19 +2718,19 @@
         <v>15633</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8236</v>
+        <v>8299</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>25476</v>
+        <v>25679</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03772527062377531</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01987380040762534</v>
+        <v>0.02002668904517277</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06147681033592779</v>
+        <v>0.06196651203575152</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>36</v>
@@ -2739,19 +2739,19 @@
         <v>37307</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>25980</v>
+        <v>27394</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>49746</v>
+        <v>51216</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05879342979009877</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04094349054178906</v>
+        <v>0.04317125432490267</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07839568950105602</v>
+        <v>0.08071222360900696</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>50</v>
@@ -2760,19 +2760,19 @@
         <v>52940</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>39923</v>
+        <v>39676</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>69697</v>
+        <v>68074</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05047019107647059</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03806012443272907</v>
+        <v>0.0378251377362501</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06644462047743808</v>
+        <v>0.06489805937337076</v>
       </c>
     </row>
     <row r="6">
@@ -2789,19 +2789,19 @@
         <v>51010</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>37051</v>
+        <v>36146</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>66228</v>
+        <v>65222</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1230945784900629</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08940875820271306</v>
+        <v>0.08722627025066675</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1598184980082759</v>
+        <v>0.1573903870539595</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>110</v>
@@ -2810,19 +2810,19 @@
         <v>120306</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>100331</v>
+        <v>99485</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>141953</v>
+        <v>140535</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1895939620272824</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1581142949954242</v>
+        <v>0.1567810636407983</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2237077256096686</v>
+        <v>0.2214731897227769</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>153</v>
@@ -2831,19 +2831,19 @@
         <v>171316</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>149237</v>
+        <v>148319</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>200657</v>
+        <v>197400</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1633225522130769</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1422741002117562</v>
+        <v>0.1413983407744742</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1912949565636494</v>
+        <v>0.1881891651843864</v>
       </c>
     </row>
     <row r="7">
@@ -2860,19 +2860,19 @@
         <v>18283</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10531</v>
+        <v>10610</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29802</v>
+        <v>29626</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04411929963408154</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02541254878328637</v>
+        <v>0.02560455087086546</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07191755980301429</v>
+        <v>0.07149263904893051</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>37</v>
@@ -2881,19 +2881,19 @@
         <v>40143</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>28490</v>
+        <v>28478</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>53903</v>
+        <v>54371</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06326284229823954</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04489890785697359</v>
+        <v>0.04487981651062883</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08494811201386318</v>
+        <v>0.08568519240407164</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>52</v>
@@ -2902,19 +2902,19 @@
         <v>58426</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>44864</v>
+        <v>44381</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>75922</v>
+        <v>77383</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05569994730772682</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04277118708025129</v>
+        <v>0.04231009849148428</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07237981497759867</v>
+        <v>0.0737726312011045</v>
       </c>
     </row>
     <row r="8">
@@ -2931,19 +2931,19 @@
         <v>5153</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2092</v>
+        <v>2002</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12163</v>
+        <v>11143</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01243507316117391</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.005047997997448919</v>
+        <v>0.004831239586708976</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02935196663655218</v>
+        <v>0.02689042575362858</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>11</v>
@@ -2952,19 +2952,19 @@
         <v>12798</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6472</v>
+        <v>6443</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>22530</v>
+        <v>22173</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02016949243278011</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01019999878378587</v>
+        <v>0.01015421474541384</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03550532806502152</v>
+        <v>0.03494308600527441</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>16</v>
@@ -2973,19 +2973,19 @@
         <v>17952</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>10413</v>
+        <v>10494</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>28564</v>
+        <v>27759</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01711391375594128</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.009926859612108832</v>
+        <v>0.0100043660862009</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02723109154057443</v>
+        <v>0.02646339312734437</v>
       </c>
     </row>
     <row r="9">
@@ -3077,19 +3077,19 @@
         <v>105385</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>96226</v>
+        <v>97277</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>110849</v>
+        <v>111589</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8880920273902893</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8109039814913926</v>
+        <v>0.8197601983142591</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9341307758888212</v>
+        <v>0.9403708908266434</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>62</v>
@@ -3098,19 +3098,19 @@
         <v>66772</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>57967</v>
+        <v>57672</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>73120</v>
+        <v>72967</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8037653237641554</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6977775138531114</v>
+        <v>0.6942293105505617</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8801779654609716</v>
+        <v>0.8783429662359259</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>154</v>
@@ -3119,19 +3119,19 @@
         <v>172157</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>160418</v>
+        <v>160235</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>181840</v>
+        <v>181504</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8533670302773578</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7951773573256514</v>
+        <v>0.7942672342313002</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9013635251094965</v>
+        <v>0.8996990405429286</v>
       </c>
     </row>
     <row r="11">
@@ -3148,19 +3148,19 @@
         <v>5176</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1984</v>
+        <v>2006</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11668</v>
+        <v>11703</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04362011010465981</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01671583936720486</v>
+        <v>0.01690549992377478</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09832404692673874</v>
+        <v>0.09862580792250612</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -3169,19 +3169,19 @@
         <v>3524</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9572</v>
+        <v>11275</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04242136600640709</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01099578894151541</v>
+        <v>0.01087968420959519</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1152193124716962</v>
+        <v>0.1357238197983293</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>8</v>
@@ -3190,19 +3190,19 @@
         <v>8700</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3994</v>
+        <v>4115</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>16427</v>
+        <v>16899</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04312647779649415</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01979845405471023</v>
+        <v>0.02039649261559708</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0814285098607377</v>
+        <v>0.08376515019234469</v>
       </c>
     </row>
     <row r="12">
@@ -3219,19 +3219,19 @@
         <v>4970</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1953</v>
+        <v>1874</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11792</v>
+        <v>11712</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04188133377498134</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01645402861174326</v>
+        <v>0.01579516667023199</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09937130483779037</v>
+        <v>0.09870162972081607</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -3240,19 +3240,19 @@
         <v>10354</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5114</v>
+        <v>5437</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17971</v>
+        <v>17900</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1246346986757829</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06156450439989994</v>
+        <v>0.06545205600936421</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2163267705123688</v>
+        <v>0.2154657358613766</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>15</v>
@@ -3261,19 +3261,19 @@
         <v>15324</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>9009</v>
+        <v>8480</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>23720</v>
+        <v>24567</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07595844379704471</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04465521307812417</v>
+        <v>0.04203695119486858</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1175759914501558</v>
+        <v>0.1217737836016117</v>
       </c>
     </row>
     <row r="13">
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7613</v>
+        <v>6648</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0180458633301809</v>
@@ -3302,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06415593140616149</v>
+        <v>0.05602412131777503</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5581</v>
+        <v>5550</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01318843846984486</v>
@@ -3323,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06717765133331501</v>
+        <v>0.06680846606781787</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -3332,19 +3332,19 @@
         <v>3237</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1000</v>
+        <v>1039</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>8782</v>
+        <v>8755</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01604561836626918</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004957140163018008</v>
+        <v>0.005150455362231342</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04353139973194976</v>
+        <v>0.04339622835424451</v>
       </c>
     </row>
     <row r="14">
@@ -3364,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5365</v>
+        <v>6044</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.00836066539988874</v>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04521305809443148</v>
+        <v>0.05093196873374852</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -3385,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6963</v>
+        <v>6611</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01599017308380971</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.08381598551394331</v>
+        <v>0.07957381201731163</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7938</v>
+        <v>8150</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01150242976283411</v>
@@ -3415,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0393483422966884</v>
+        <v>0.04039867522801328</v>
       </c>
     </row>
     <row r="15">
@@ -3507,7 +3507,7 @@
         <v>24547</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20529</v>
+        <v>19941</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>26575</v>
@@ -3516,7 +3516,7 @@
         <v>0.9236788816403221</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7724807587636594</v>
+        <v>0.7503828793083349</v>
       </c>
       <c r="I16" s="6" t="n">
         <v>1</v>
@@ -3528,19 +3528,19 @@
         <v>17823</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12735</v>
+        <v>12089</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21146</v>
+        <v>21102</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8011633674033295</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5724672057175089</v>
+        <v>0.5434278097126569</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9505646757423644</v>
+        <v>0.9485708641385925</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>33</v>
@@ -3549,19 +3549,19 @@
         <v>42369</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>35898</v>
+        <v>36043</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>46475</v>
+        <v>45929</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8678524753484315</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7352999802003102</v>
+        <v>0.7382642958006183</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9519511272378134</v>
+        <v>0.9407686080890688</v>
       </c>
     </row>
     <row r="17">
@@ -3581,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5278</v>
+        <v>5334</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03923360703863061</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1986170841285252</v>
+        <v>0.2007010018580365</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5727</v>
+        <v>5884</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04984115103425768</v>
@@ -3611,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2574177926682996</v>
+        <v>0.2645087589489576</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2</v>
@@ -3623,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6903</v>
+        <v>6957</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04406712599781706</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1413871683167692</v>
+        <v>0.1425032717872177</v>
       </c>
     </row>
     <row r="18">
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>6663</v>
+        <v>6768</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.09956782601672624</v>
@@ -3674,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2995068698213548</v>
+        <v>0.3042338294797753</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>7566</v>
+        <v>7705</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0453698777940703</v>
@@ -3695,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.154973995539377</v>
+        <v>0.1578192861558949</v>
       </c>
     </row>
     <row r="19">
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4419</v>
+        <v>4456</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03708751132104731</v>
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1662853831390793</v>
+        <v>0.1676611282234833</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -3736,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6301</v>
+        <v>6829</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04942765554568661</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2832437284772489</v>
+        <v>0.3069581542612883</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>7188</v>
+        <v>6627</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04271052085968116</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1472318218838271</v>
+        <v>0.1357357228208626</v>
       </c>
     </row>
     <row r="20">
@@ -3905,19 +3905,19 @@
         <v>454250</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>433229</v>
+        <v>433418</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>472769</v>
+        <v>473366</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8116866712415944</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7741245105653179</v>
+        <v>0.7744623767766836</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8447779924019457</v>
+        <v>0.8458443116205143</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>478</v>
@@ -3926,19 +3926,19 @@
         <v>508585</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>483454</v>
+        <v>481981</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>536845</v>
+        <v>533517</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6874026807061075</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6534358122841319</v>
+        <v>0.6514451571025082</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7255981187467223</v>
+        <v>0.721100204773947</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>890</v>
@@ -3947,19 +3947,19 @@
         <v>962835</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>926375</v>
+        <v>929736</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>991330</v>
+        <v>997033</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7409262034562311</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7128693784668773</v>
+        <v>0.715455335076506</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.762854062479136</v>
+        <v>0.7672422663343679</v>
       </c>
     </row>
     <row r="23">
@@ -3976,19 +3976,19 @@
         <v>21852</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>14300</v>
+        <v>13687</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>33434</v>
+        <v>34370</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03904682886480369</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02555315523095675</v>
+        <v>0.02445728493302027</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05974174279534377</v>
+        <v>0.06141395932756818</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>40</v>
@@ -3997,19 +3997,19 @@
         <v>41940</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>29915</v>
+        <v>30775</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>55242</v>
+        <v>55090</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.05668594842915579</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04043347517367012</v>
+        <v>0.04159564401681816</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.07466511285277991</v>
+        <v>0.07445913806133121</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>60</v>
@@ -4018,19 +4018,19 @@
         <v>63792</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>48944</v>
+        <v>50277</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>80771</v>
+        <v>80600</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04908957327876845</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03766388542232865</v>
+        <v>0.03868964119396819</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06215566923687142</v>
+        <v>0.06202367700480715</v>
       </c>
     </row>
     <row r="24">
@@ -4047,19 +4047,19 @@
         <v>55980</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>41530</v>
+        <v>41795</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>73005</v>
+        <v>73249</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1000290294459607</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07420836067512829</v>
+        <v>0.07468238846266514</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1304502373104656</v>
+        <v>0.1308861881630025</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>122</v>
@@ -4068,19 +4068,19 @@
         <v>132875</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>111591</v>
+        <v>113462</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>153754</v>
+        <v>153419</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1795932572860472</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1508259008231881</v>
+        <v>0.1533544641433711</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.207813620572813</v>
+        <v>0.2073613200593873</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>170</v>
@@ -4089,19 +4089,19 @@
         <v>188855</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>163465</v>
+        <v>161693</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>218301</v>
+        <v>213575</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1453285242295484</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1257906258730169</v>
+        <v>0.1244265215617653</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1679881194649766</v>
+        <v>0.1643516949579385</v>
       </c>
     </row>
     <row r="25">
@@ -4118,19 +4118,19 @@
         <v>21410</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12885</v>
+        <v>13972</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>32684</v>
+        <v>33963</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03825681400497788</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02302377361791773</v>
+        <v>0.02496541149533754</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05840193003313054</v>
+        <v>0.06068756234840529</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>39</v>
@@ -4139,19 +4139,19 @@
         <v>42338</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>31154</v>
+        <v>31183</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>57822</v>
+        <v>57250</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05722433691661139</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0421071042061416</v>
+        <v>0.04214675623015297</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07815191350710703</v>
+        <v>0.0773784078950096</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>57</v>
@@ -4160,19 +4160,19 @@
         <v>63748</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>48991</v>
+        <v>48264</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>83162</v>
+        <v>82654</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04905587821408501</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03769998662318829</v>
+        <v>0.03714005684057384</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06399554092469267</v>
+        <v>0.06360442029702713</v>
       </c>
     </row>
     <row r="26">
@@ -4189,19 +4189,19 @@
         <v>6145</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2071</v>
+        <v>2118</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>12228</v>
+        <v>12259</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01098065644266323</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003700798378189226</v>
+        <v>0.00378529663292644</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02184997904208417</v>
+        <v>0.02190457816595526</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>12</v>
@@ -4210,19 +4210,19 @@
         <v>14127</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>8421</v>
+        <v>7467</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>25575</v>
+        <v>24172</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01909377666207814</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01138137158298205</v>
+        <v>0.01009190371996816</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03456647548472615</v>
+        <v>0.03267137431411832</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>18</v>
@@ -4231,19 +4231,19 @@
         <v>20272</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>12546</v>
+        <v>12650</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>32043</v>
+        <v>31070</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01559982082136709</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.009654388912219113</v>
+        <v>0.009734792726425483</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02465783432228685</v>
+        <v>0.0239088005504888</v>
       </c>
     </row>
     <row r="27">
@@ -4574,19 +4574,19 @@
         <v>277403</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>262658</v>
+        <v>262991</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>291157</v>
+        <v>291458</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7838437528649453</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7421781692914358</v>
+        <v>0.7431188963823101</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8227061397511788</v>
+        <v>0.8235578253966248</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>318</v>
@@ -4595,19 +4595,19 @@
         <v>365129</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>343092</v>
+        <v>337840</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>391849</v>
+        <v>387892</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6581781475251607</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6184542870869298</v>
+        <v>0.6089879707420772</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7063435160110981</v>
+        <v>0.6992109317161835</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>619</v>
@@ -4616,19 +4616,19 @@
         <v>642532</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>614076</v>
+        <v>612666</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>672788</v>
+        <v>669729</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.707122004559969</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6758055242654933</v>
+        <v>0.6742537362519148</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7404191686620708</v>
+        <v>0.7370533348342551</v>
       </c>
     </row>
     <row r="5">
@@ -4645,19 +4645,19 @@
         <v>20216</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12700</v>
+        <v>13523</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>28802</v>
+        <v>29886</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05712406121154636</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03588490181403367</v>
+        <v>0.03821168025383507</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08138495459332484</v>
+        <v>0.08444869698807117</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>41</v>
@@ -4666,19 +4666,19 @@
         <v>47692</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>34414</v>
+        <v>36242</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>63998</v>
+        <v>64501</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08596949167039583</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06203356993652752</v>
+        <v>0.0653287699337734</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.115362900812832</v>
+        <v>0.11626945949473</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>64</v>
@@ -4687,19 +4687,19 @@
         <v>67908</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>53113</v>
+        <v>54623</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>87274</v>
+        <v>86396</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07473486131415734</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05845231092522203</v>
+        <v>0.06011377746157646</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09604714777698153</v>
+        <v>0.09508074947289931</v>
       </c>
     </row>
     <row r="6">
@@ -4716,19 +4716,19 @@
         <v>36448</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>26596</v>
+        <v>26823</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>49007</v>
+        <v>47680</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1029905617138107</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07515059168627181</v>
+        <v>0.07579346051042303</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1384767114511277</v>
+        <v>0.1347265146622812</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>83</v>
@@ -4737,19 +4737,19 @@
         <v>104641</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>85169</v>
+        <v>85597</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>124693</v>
+        <v>126755</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1886250771800105</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.153525491635386</v>
+        <v>0.1542966228873029</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.224770116036295</v>
+        <v>0.2284879326143709</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>122</v>
@@ -4758,19 +4758,19 @@
         <v>141090</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>117851</v>
+        <v>119313</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>164800</v>
+        <v>165300</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1552724070449323</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.129697316777011</v>
+        <v>0.1313070917742113</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1813662099448364</v>
+        <v>0.1819163051370946</v>
       </c>
     </row>
     <row r="7">
@@ -4787,19 +4787,19 @@
         <v>19007</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12342</v>
+        <v>12027</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27918</v>
+        <v>28039</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05370844547167195</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03487440194765375</v>
+        <v>0.03398403770263378</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07888722663884914</v>
+        <v>0.07922843245552509</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -4808,19 +4808,19 @@
         <v>27942</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18010</v>
+        <v>17926</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>41448</v>
+        <v>42005</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05036783172664289</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03246509754321818</v>
+        <v>0.03231306396541569</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07471316865559989</v>
+        <v>0.07571786954696039</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>44</v>
@@ -4829,19 +4829,19 @@
         <v>46949</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>34210</v>
+        <v>33918</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>62357</v>
+        <v>63034</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05166892378841371</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03764909801987398</v>
+        <v>0.03732718745681726</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0686251121627821</v>
+        <v>0.06937005550619263</v>
       </c>
     </row>
     <row r="8">
@@ -4861,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4148</v>
+        <v>4597</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.002333178738025669</v>
@@ -4870,7 +4870,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01172087556802098</v>
+        <v>0.01298923179363598</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>7</v>
@@ -4879,19 +4879,19 @@
         <v>9353</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4485</v>
+        <v>3915</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>19914</v>
+        <v>19520</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01685945189779001</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.008084572927769627</v>
+        <v>0.007057727797823625</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03589739409383357</v>
+        <v>0.03518616237878184</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>8</v>
@@ -4900,19 +4900,19 @@
         <v>10179</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4457</v>
+        <v>4843</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>19262</v>
+        <v>19845</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01120180329252769</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.004905438383222461</v>
+        <v>0.005329456474257729</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0211981428913263</v>
+        <v>0.02183972127922193</v>
       </c>
     </row>
     <row r="9">
@@ -5004,19 +5004,19 @@
         <v>174256</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>165284</v>
+        <v>164599</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>181279</v>
+        <v>180759</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9050753515527362</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8584780599219234</v>
+        <v>0.8549189972307937</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9415517326873744</v>
+        <v>0.9388525218585618</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>122</v>
@@ -5025,19 +5025,19 @@
         <v>143410</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>129152</v>
+        <v>128217</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>155656</v>
+        <v>155695</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7625200740203723</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6867098757206336</v>
+        <v>0.681739557793378</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8276312465935813</v>
+        <v>0.8278413146185307</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>299</v>
@@ -5046,19 +5046,19 @@
         <v>317666</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>301375</v>
+        <v>300542</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>330840</v>
+        <v>332188</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8346325792686611</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7918288155288183</v>
+        <v>0.7896397306381275</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8692448635019774</v>
+        <v>0.8727877647274633</v>
       </c>
     </row>
     <row r="11">
@@ -5075,19 +5075,19 @@
         <v>7636</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3213</v>
+        <v>3722</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14066</v>
+        <v>15203</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03966167336717429</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01668987199635581</v>
+        <v>0.01933383079112457</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07305967689479941</v>
+        <v>0.07896299122399004</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>15</v>
@@ -5096,19 +5096,19 @@
         <v>19226</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>11226</v>
+        <v>11183</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>29222</v>
+        <v>31854</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1022272751690888</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05969180466721041</v>
+        <v>0.05945945373346117</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1553731495394071</v>
+        <v>0.1693710977498863</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>23</v>
@@ -5117,19 +5117,19 @@
         <v>26862</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>17666</v>
+        <v>17166</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>39702</v>
+        <v>40383</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07057806255204893</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04641488617205657</v>
+        <v>0.04510210942959724</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1043131686926935</v>
+        <v>0.1061011151886049</v>
       </c>
     </row>
     <row r="12">
@@ -5146,19 +5146,19 @@
         <v>6914</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3343</v>
+        <v>3376</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13758</v>
+        <v>13606</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03591336424803518</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01736138785310412</v>
+        <v>0.01753322796842494</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07145588078307351</v>
+        <v>0.07066939480004711</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>18</v>
@@ -5167,19 +5167,19 @@
         <v>23238</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>13391</v>
+        <v>14405</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>35447</v>
+        <v>35604</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1235571988998894</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07120195207632897</v>
+        <v>0.0765924488530681</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1884721065110427</v>
+        <v>0.1893078216148762</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>26</v>
@@ -5188,19 +5188,19 @@
         <v>30152</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>20556</v>
+        <v>19462</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>42637</v>
+        <v>43837</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07922200068264253</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05400904063636507</v>
+        <v>0.05113382883936366</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1120233475025049</v>
+        <v>0.1151763843674491</v>
       </c>
     </row>
     <row r="13">
@@ -5220,7 +5220,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6590</v>
+        <v>6007</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.009979078171454481</v>
@@ -5229,7 +5229,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03422680129793676</v>
+        <v>0.03120015037323221</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -5241,7 +5241,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6750</v>
+        <v>7032</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01169545191064959</v>
@@ -5250,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03589204512352026</v>
+        <v>0.03738938195952925</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -5259,19 +5259,19 @@
         <v>4121</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>9979</v>
+        <v>10324</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0108272132005981</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.002700780304156769</v>
+        <v>0.002698732873161816</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02621997609011411</v>
+        <v>0.02712639349443793</v>
       </c>
     </row>
     <row r="14">
@@ -5291,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5528</v>
+        <v>6385</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.009370532660599817</v>
@@ -5300,7 +5300,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02871409039112467</v>
+        <v>0.03316519783893054</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -5325,7 +5325,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5978</v>
+        <v>6354</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.004740144296049346</v>
@@ -5334,7 +5334,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01570596606338288</v>
+        <v>0.01669447291601682</v>
       </c>
     </row>
     <row r="15">
@@ -5426,19 +5426,19 @@
         <v>36174</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>29253</v>
+        <v>28593</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>40176</v>
+        <v>39687</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8606992311370508</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.696022538907461</v>
+        <v>0.6803255915740993</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9559041636843997</v>
+        <v>0.9442881194410955</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -5447,19 +5447,19 @@
         <v>27757</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>21481</v>
+        <v>20459</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>31620</v>
+        <v>31338</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8242747306296715</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6379157344577779</v>
+        <v>0.6075568253948982</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9390064894894417</v>
+        <v>0.9306340484000268</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>57</v>
@@ -5468,19 +5468,19 @@
         <v>63931</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>56624</v>
+        <v>55750</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>70345</v>
+        <v>69573</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8444970113387763</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7479808333426168</v>
+        <v>0.7364348361595119</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.929222276260265</v>
+        <v>0.9190265517464088</v>
       </c>
     </row>
     <row r="17">
@@ -5500,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9312</v>
+        <v>9610</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06372209117194555</v>
@@ -5509,7 +5509,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2215677982549564</v>
+        <v>0.2286539511875763</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -5518,19 +5518,19 @@
         <v>4542</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1138</v>
+        <v>1225</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10575</v>
+        <v>11448</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1348693905824764</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03380857809298384</v>
+        <v>0.03638950485301333</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3140262915643299</v>
+        <v>0.3399582004529048</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6</v>
@@ -5539,19 +5539,19 @@
         <v>7220</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2959</v>
+        <v>3102</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>14228</v>
+        <v>15024</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09536958577161833</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03908420824197685</v>
+        <v>0.04098170156001857</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1879432735969243</v>
+        <v>0.1984546695117279</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         <v>3176</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>742</v>
+        <v>775</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8432</v>
+        <v>9377</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.07557867769100363</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01765172573407959</v>
+        <v>0.01842854515245596</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2006222076458206</v>
+        <v>0.2231032085997888</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>0</v>
@@ -5602,19 +5602,19 @@
         <v>3177</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>750</v>
+        <v>728</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>10005</v>
+        <v>9030</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04196003279662812</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.009911153357058259</v>
+        <v>0.009620243197527592</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1321604864288552</v>
+        <v>0.1192808846421765</v>
       </c>
     </row>
     <row r="19">
@@ -5647,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7265</v>
+        <v>6865</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04085587878785221</v>
@@ -5656,7 +5656,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2157572230641128</v>
+        <v>0.2038683198462604</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -5668,7 +5668,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>7075</v>
+        <v>8506</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01817337009297725</v>
@@ -5677,7 +5677,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09346101156033794</v>
+        <v>0.1123636791526176</v>
       </c>
     </row>
     <row r="20">
@@ -5816,19 +5816,19 @@
         <v>487834</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>470832</v>
+        <v>468638</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>505448</v>
+        <v>505049</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8289972435448885</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8001049443324514</v>
+        <v>0.7963766646389016</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8589283674346325</v>
+        <v>0.858251458468746</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>461</v>
@@ -5837,19 +5837,19 @@
         <v>536296</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>504949</v>
+        <v>506032</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>563775</v>
+        <v>565026</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6906533515094685</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6502837865802203</v>
+        <v>0.6516795020724525</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7260414924542012</v>
+        <v>0.7276524153553097</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>975</v>
@@ -5858,19 +5858,19 @@
         <v>1024130</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>989758</v>
+        <v>991572</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1055307</v>
+        <v>1059085</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7502959529715743</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7251145586780999</v>
+        <v>0.726443441142646</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7731367301784816</v>
+        <v>0.7759044011468216</v>
       </c>
     </row>
     <row r="23">
@@ -5887,19 +5887,19 @@
         <v>30531</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>21000</v>
+        <v>21249</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>41878</v>
+        <v>41797</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.05188199515342801</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03568583904952444</v>
+        <v>0.03610888968664358</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.07116459391816113</v>
+        <v>0.07102743287062958</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>60</v>
@@ -5908,19 +5908,19 @@
         <v>71460</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>53008</v>
+        <v>55575</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>90834</v>
+        <v>92099</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.09202782400659351</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0682646285563467</v>
+        <v>0.07157118450008322</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1169785281030325</v>
+        <v>0.1186067500053603</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>93</v>
@@ -5929,19 +5929,19 @@
         <v>101991</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>81515</v>
+        <v>83818</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>122853</v>
+        <v>124154</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.07472021732134701</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.05971911954827606</v>
+        <v>0.06140690425351903</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.09000414078806754</v>
+        <v>0.09095740886490362</v>
       </c>
     </row>
     <row r="24">
@@ -5958,19 +5958,19 @@
         <v>46540</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>34664</v>
+        <v>35310</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>60796</v>
+        <v>59580</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07908656271463545</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0589066515571751</v>
+        <v>0.06000361703082335</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1033133450007381</v>
+        <v>0.1012469052967285</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>101</v>
@@ -5979,19 +5979,19 @@
         <v>127879</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>106311</v>
+        <v>106399</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>153348</v>
+        <v>151840</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1646853062292081</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1369097196730826</v>
+        <v>0.1370230615299736</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1974844256743023</v>
+        <v>0.195542282103335</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>151</v>
@@ -6000,19 +6000,19 @@
         <v>174418</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>147991</v>
+        <v>150495</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>201031</v>
+        <v>202765</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.127782110359964</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1084206185752263</v>
+        <v>0.110255006127966</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.14727888649127</v>
+        <v>0.1485493097954089</v>
       </c>
     </row>
     <row r="25">
@@ -6029,19 +6029,19 @@
         <v>20929</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>14047</v>
+        <v>13683</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>31430</v>
+        <v>29550</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03556519219379468</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02387112234248812</v>
+        <v>0.02325198391112206</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05341094463349889</v>
+        <v>0.0502158094309894</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>25</v>
@@ -6050,19 +6050,19 @@
         <v>31517</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>20455</v>
+        <v>20086</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>44421</v>
+        <v>44887</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04058865522239765</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02634198705155995</v>
+        <v>0.02586673599559282</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05720658200843217</v>
+        <v>0.05780706571728989</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>49</v>
@@ -6071,19 +6071,19 @@
         <v>52446</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>38937</v>
+        <v>39045</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>67366</v>
+        <v>67897</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03842294773096839</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02852561678694637</v>
+        <v>0.02860473763183836</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04935384134200058</v>
+        <v>0.04974269388748766</v>
       </c>
     </row>
     <row r="26">
@@ -6100,19 +6100,19 @@
         <v>2630</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7652</v>
+        <v>7084</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.00446900639325344</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.001402689474897405</v>
+        <v>0.001399030610936367</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0130033149592073</v>
+        <v>0.01203855450327006</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>7</v>
@@ -6121,19 +6121,19 @@
         <v>9353</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3762</v>
+        <v>3777</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>19388</v>
+        <v>18739</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01204486303233222</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.004844592519855267</v>
+        <v>0.004864096502585596</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02496775832498467</v>
+        <v>0.02413296944818794</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>10</v>
@@ -6142,19 +6142,19 @@
         <v>11983</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5801</v>
+        <v>6203</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>21865</v>
+        <v>22639</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.008778771616146396</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.004249927007064398</v>
+        <v>0.004544517812637404</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01601896591737113</v>
+        <v>0.01658592350684594</v>
       </c>
     </row>
     <row r="27">
@@ -6485,19 +6485,19 @@
         <v>201442</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>189594</v>
+        <v>189260</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>213441</v>
+        <v>215277</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.699608577402228</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6584573664706045</v>
+        <v>0.6572984660610521</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7412804027661443</v>
+        <v>0.7476553245334906</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>539</v>
@@ -6506,19 +6506,19 @@
         <v>281352</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>266166</v>
+        <v>265449</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>298707</v>
+        <v>298286</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5279465843130043</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4994507561780629</v>
+        <v>0.4981045668483185</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5605120240450785</v>
+        <v>0.5597226411199551</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>826</v>
@@ -6527,19 +6527,19 @@
         <v>482795</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>460808</v>
+        <v>459782</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>503615</v>
+        <v>503971</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.5881616091413517</v>
+        <v>0.5881616091413515</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.561376028590944</v>
+        <v>0.5601265586638715</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6135258092514784</v>
+        <v>0.6139590287709962</v>
       </c>
     </row>
     <row r="5">
@@ -6556,19 +6556,19 @@
         <v>29243</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>21549</v>
+        <v>21019</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>38766</v>
+        <v>37932</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1015617642898369</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07483828312804301</v>
+        <v>0.07299841038372126</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1346335282498529</v>
+        <v>0.1317392570990752</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>166</v>
@@ -6577,19 +6577,19 @@
         <v>89268</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>77640</v>
+        <v>77548</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>102866</v>
+        <v>103422</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1675087188458287</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1456879156210106</v>
+        <v>0.1455167195819547</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1930243367300613</v>
+        <v>0.1940678400446708</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>212</v>
@@ -6598,19 +6598,19 @@
         <v>118512</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>103240</v>
+        <v>104268</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>134101</v>
+        <v>134078</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1443760647592659</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1257709256097786</v>
+        <v>0.1270241259899796</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1633682030992192</v>
+        <v>0.1633402159853247</v>
       </c>
     </row>
     <row r="6">
@@ -6627,19 +6627,19 @@
         <v>42766</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>34569</v>
+        <v>33816</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>54116</v>
+        <v>52767</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1485248957564607</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1200586724140206</v>
+        <v>0.1174443096105207</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.187943066866133</v>
+        <v>0.1832582990288159</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>204</v>
@@ -6648,19 +6648,19 @@
         <v>105616</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>92163</v>
+        <v>92172</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>120019</v>
+        <v>119049</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1981850575732779</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1729408712750088</v>
+        <v>0.1729571567693519</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2252115041516883</v>
+        <v>0.223391146052823</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>272</v>
@@ -6669,19 +6669,19 @@
         <v>148382</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>132957</v>
+        <v>132278</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>164702</v>
+        <v>165702</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1807654306484923</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1619741068602578</v>
+        <v>0.1611464697301579</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2006472512287579</v>
+        <v>0.2018655081765767</v>
       </c>
     </row>
     <row r="7">
@@ -6698,19 +6698,19 @@
         <v>13323</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8221</v>
+        <v>8180</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19918</v>
+        <v>20277</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0462707974949174</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02855051737338565</v>
+        <v>0.02841062531201866</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06917660550707096</v>
+        <v>0.07042242225491065</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>87</v>
@@ -6719,19 +6719,19 @@
         <v>50389</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>39970</v>
+        <v>40847</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>60814</v>
+        <v>63240</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.09455356717669738</v>
+        <v>0.09455356717669737</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07500166795026396</v>
+        <v>0.07664696403528322</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1141156444146711</v>
+        <v>0.1186678889789104</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>108</v>
@@ -6740,19 +6740,19 @@
         <v>63712</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>53233</v>
+        <v>52774</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>77124</v>
+        <v>77888</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07761709729860024</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06485070465940025</v>
+        <v>0.06429198759443969</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09395572732211932</v>
+        <v>0.09488620043978158</v>
       </c>
     </row>
     <row r="8">
@@ -6769,19 +6769,19 @@
         <v>1162</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3514</v>
+        <v>3502</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.004033965056557085</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.001176336684694154</v>
+        <v>0.001179397052215227</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01220446504765109</v>
+        <v>0.01216079932277585</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>13</v>
@@ -6790,19 +6790,19 @@
         <v>6292</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3332</v>
+        <v>3362</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>11102</v>
+        <v>10750</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01180607209119185</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.006251876309555307</v>
+        <v>0.006309220950736974</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02083339954085922</v>
+        <v>0.02017248249203163</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>16</v>
@@ -6811,19 +6811,19 @@
         <v>7453</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4282</v>
+        <v>4433</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>12148</v>
+        <v>12545</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.009079798152289972</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.005216088727083176</v>
+        <v>0.005400602325784023</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01479940259971609</v>
+        <v>0.01528329500580118</v>
       </c>
     </row>
     <row r="9">
@@ -6915,19 +6915,19 @@
         <v>254942</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>243121</v>
+        <v>244682</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>264244</v>
+        <v>265474</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.8391069048529816</v>
+        <v>0.8391069048529817</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8002019074704931</v>
+        <v>0.8053390093600892</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8697242283960306</v>
+        <v>0.8737728937122509</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>404</v>
@@ -6936,19 +6936,19 @@
         <v>210871</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>199436</v>
+        <v>200409</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>221178</v>
+        <v>221071</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.7604401280688518</v>
+        <v>0.7604401280688515</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7192053213058353</v>
+        <v>0.7227110645220385</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7976084672380088</v>
+        <v>0.7972247514248035</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>757</v>
@@ -6957,19 +6957,19 @@
         <v>465812</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>449687</v>
+        <v>451601</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>480916</v>
+        <v>480619</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8015688147173408</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7738197474024608</v>
+        <v>0.7771142867681057</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8275596701329995</v>
+        <v>0.8270483908190108</v>
       </c>
     </row>
     <row r="11">
@@ -6986,19 +6986,19 @@
         <v>22957</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16771</v>
+        <v>16083</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>31260</v>
+        <v>31125</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.07556132269417745</v>
+        <v>0.07556132269417747</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05520062026557514</v>
+        <v>0.0529342584930088</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1028890023159028</v>
+        <v>0.1024437995128595</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>55</v>
@@ -7007,19 +7007,19 @@
         <v>29862</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>22794</v>
+        <v>23103</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>37404</v>
+        <v>38013</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1076878302608023</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08219969289432169</v>
+        <v>0.08331237433776974</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1348851723224961</v>
+        <v>0.1370828885320412</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>90</v>
@@ -7028,19 +7028,19 @@
         <v>52819</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>42704</v>
+        <v>43374</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>64111</v>
+        <v>64705</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.09089139958405203</v>
+        <v>0.09089139958405204</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07348476804383051</v>
+        <v>0.07463806008561029</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1103216077216271</v>
+        <v>0.1113450295100259</v>
       </c>
     </row>
     <row r="12">
@@ -7057,19 +7057,19 @@
         <v>19326</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13000</v>
+        <v>13368</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>27616</v>
+        <v>27110</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.06361039702465555</v>
+        <v>0.06361039702465557</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04278706835193113</v>
+        <v>0.0439985527288536</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09089559513291433</v>
+        <v>0.08922825330176644</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>51</v>
@@ -7078,19 +7078,19 @@
         <v>27514</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>20773</v>
+        <v>20514</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>35911</v>
+        <v>35822</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.09922217350256952</v>
+        <v>0.09922217350256954</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07490985597238535</v>
+        <v>0.07397899013390503</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1295011388097526</v>
+        <v>0.1291816406087549</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>80</v>
@@ -7099,19 +7099,19 @@
         <v>46841</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>37581</v>
+        <v>36816</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>58403</v>
+        <v>58020</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08060356911033217</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0646699841040432</v>
+        <v>0.06335369436568543</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1004996736578062</v>
+        <v>0.09983989262544235</v>
       </c>
     </row>
     <row r="13">
@@ -7128,19 +7128,19 @@
         <v>6599</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3290</v>
+        <v>2999</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13090</v>
+        <v>12244</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.02172137542818534</v>
+        <v>0.02172137542818533</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01082881885735806</v>
+        <v>0.009869184767292753</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0430839832588228</v>
+        <v>0.04030073655568292</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -7149,19 +7149,19 @@
         <v>8597</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5257</v>
+        <v>5348</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13401</v>
+        <v>14518</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0310014912452211</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01895635042213945</v>
+        <v>0.01928704800470215</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04832574450863659</v>
+        <v>0.05235290648513341</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>26</v>
@@ -7170,19 +7170,19 @@
         <v>15196</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10030</v>
+        <v>9999</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>22856</v>
+        <v>22864</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02614964665334314</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01725888414382532</v>
+        <v>0.0172056688309114</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03933030683743737</v>
+        <v>0.03934372663676133</v>
       </c>
     </row>
     <row r="14">
@@ -7215,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2580</v>
+        <v>2028</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.001648376922555469</v>
@@ -7224,7 +7224,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.009302396323924881</v>
+        <v>0.007314429028460255</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -7236,7 +7236,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2216</v>
+        <v>2290</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0007865699349319269</v>
@@ -7245,7 +7245,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.003813052411181329</v>
+        <v>0.003940665821837735</v>
       </c>
     </row>
     <row r="15">
@@ -7337,19 +7337,19 @@
         <v>103583</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>96728</v>
+        <v>96498</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>109121</v>
+        <v>109398</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.871312631678824</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8136580765207568</v>
+        <v>0.8117221589428736</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9179025611776953</v>
+        <v>0.9202285749362401</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>127</v>
@@ -7358,19 +7358,19 @@
         <v>68409</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>62455</v>
+        <v>62595</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>72934</v>
+        <v>72710</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8256496212724399</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7537852953567403</v>
+        <v>0.7554822639814108</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.880258166054862</v>
+        <v>0.8775549641241365</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>275</v>
@@ -7379,19 +7379,19 @@
         <v>171992</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>163293</v>
+        <v>162693</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>178997</v>
+        <v>178998</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.8525583391489223</v>
+        <v>0.8525583391489222</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8094391645889926</v>
+        <v>0.8064626101165506</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8872838858302042</v>
+        <v>0.887289044745434</v>
       </c>
     </row>
     <row r="17">
@@ -7408,19 +7408,19 @@
         <v>8698</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4679</v>
+        <v>4602</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15013</v>
+        <v>14483</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.07316432838035702</v>
+        <v>0.07316432838035705</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03936069756671381</v>
+        <v>0.03871291534223899</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1262893576418376</v>
+        <v>0.1218291528137883</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>15</v>
@@ -7429,19 +7429,19 @@
         <v>8759</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5150</v>
+        <v>5203</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13976</v>
+        <v>13690</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1057140620948628</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06215666321732765</v>
+        <v>0.06279169341732058</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1686794737809843</v>
+        <v>0.1652332864682032</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>26</v>
@@ -7450,19 +7450,19 @@
         <v>17457</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>11852</v>
+        <v>11803</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>24289</v>
+        <v>25014</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08653285626363703</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05874922200408848</v>
+        <v>0.05850788761296369</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1204013161670419</v>
+        <v>0.1239916877431525</v>
       </c>
     </row>
     <row r="18">
@@ -7479,19 +7479,19 @@
         <v>5942</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2683</v>
+        <v>2469</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10957</v>
+        <v>11669</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0499820025232862</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02256948663616817</v>
+        <v>0.02077176630178241</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09216827871049743</v>
+        <v>0.09815948064775001</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>10</v>
@@ -7500,19 +7500,19 @@
         <v>5687</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2826</v>
+        <v>2859</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>9790</v>
+        <v>9903</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06863631663269738</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0341034516433224</v>
+        <v>0.03450162567102747</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1181622573553334</v>
+        <v>0.1195273486545213</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>18</v>
@@ -7521,19 +7521,19 @@
         <v>11629</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>7217</v>
+        <v>7146</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>17972</v>
+        <v>18128</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05764353120129165</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03577539542180277</v>
+        <v>0.03542370859088923</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.08908494050032462</v>
+        <v>0.08985881322572206</v>
       </c>
     </row>
     <row r="19">
@@ -7553,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3535</v>
+        <v>3116</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.005541037417532714</v>
@@ -7562,7 +7562,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02973182611215899</v>
+        <v>0.02620735193796807</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -7587,7 +7587,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>3330</v>
+        <v>3296</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.003265273386149191</v>
@@ -7596,7 +7596,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01650808510660043</v>
+        <v>0.01633856499487876</v>
       </c>
     </row>
     <row r="20">
@@ -7735,19 +7735,19 @@
         <v>559967</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>541386</v>
+        <v>541941</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>577773</v>
+        <v>577909</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7879728893977858</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7618251413434938</v>
+        <v>0.7626068633903489</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8130282845083743</v>
+        <v>0.8132200557365742</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1070</v>
@@ -7756,19 +7756,19 @@
         <v>560632</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>539852</v>
+        <v>539640</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>580963</v>
+        <v>580531</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.6277557085369539</v>
+        <v>0.6277557085369541</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6044872436873994</v>
+        <v>0.6042498312277543</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6505204795106216</v>
+        <v>0.6500373558306372</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1858</v>
@@ -7777,19 +7777,19 @@
         <v>1120599</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1092674</v>
+        <v>1091045</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1147909</v>
+        <v>1147059</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.6987515319490657</v>
+        <v>0.6987515319490656</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6813387617655319</v>
+        <v>0.680322967170272</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7157805045408557</v>
+        <v>0.715250942167069</v>
       </c>
     </row>
     <row r="23">
@@ -7806,19 +7806,19 @@
         <v>60899</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>49971</v>
+        <v>49174</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>75197</v>
+        <v>75180</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.08569513468054903</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07031834145547171</v>
+        <v>0.06919665504773911</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1058151134820619</v>
+        <v>0.1057912254502425</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>236</v>
@@ -7827,19 +7827,19 @@
         <v>127889</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>112827</v>
+        <v>114460</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>144959</v>
+        <v>143879</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1432012153055222</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1263355564638754</v>
+        <v>0.1281641136055187</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1623149268594793</v>
+        <v>0.1611056636627914</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>328</v>
@@ -7848,19 +7848,19 @@
         <v>188788</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>170495</v>
+        <v>167166</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>209120</v>
+        <v>206920</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1177189822314079</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1063123956557509</v>
+        <v>0.1042365748037207</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1303968990432544</v>
+        <v>0.1290255413008508</v>
       </c>
     </row>
     <row r="24">
@@ -7877,19 +7877,19 @@
         <v>68034</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>55833</v>
+        <v>56691</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>83535</v>
+        <v>82505</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.09573600420158004</v>
+        <v>0.09573600420158006</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07856629540483753</v>
+        <v>0.07977432587297166</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1175490723566909</v>
+        <v>0.1160985892653207</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>265</v>
@@ -7898,19 +7898,19 @@
         <v>138818</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>124461</v>
+        <v>123989</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>155486</v>
+        <v>155107</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1554379925022103</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1393621055540023</v>
+        <v>0.1388337257549781</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.174102350993695</v>
+        <v>0.1736772001477513</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>370</v>
@@ -7919,19 +7919,19 @@
         <v>206852</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>186751</v>
+        <v>187624</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>227251</v>
+        <v>228838</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1289827035252732</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1164489902455111</v>
+        <v>0.116993525928587</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1417030097560607</v>
+        <v>0.1426924770157806</v>
       </c>
     </row>
     <row r="25">
@@ -7948,19 +7948,19 @@
         <v>20581</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>13795</v>
+        <v>14168</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>29126</v>
+        <v>29818</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.02896149939929193</v>
+        <v>0.02896149939929192</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0194118463576626</v>
+        <v>0.01993751424773991</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04098478550958206</v>
+        <v>0.04195919333127755</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>104</v>
@@ -7969,19 +7969,19 @@
         <v>58986</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>46626</v>
+        <v>48402</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>71423</v>
+        <v>72088</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06604830479753455</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05220855175347435</v>
+        <v>0.05419718270140784</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07997448692245543</v>
+        <v>0.08071940795567953</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>135</v>
@@ -7990,19 +7990,19 @@
         <v>79567</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>67458</v>
+        <v>67656</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>95124</v>
+        <v>94470</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.04961431018580768</v>
+        <v>0.04961431018580767</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04206373025382423</v>
+        <v>0.04218699944243583</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05931468049953881</v>
+        <v>0.05890668237779127</v>
       </c>
     </row>
     <row r="26">
@@ -8019,19 +8019,19 @@
         <v>1162</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3377</v>
+        <v>3560</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.001634472320793221</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0004778349442693052</v>
+        <v>0.0004799463636790478</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.004752021427087954</v>
+        <v>0.0050099731419007</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>14</v>
@@ -8040,19 +8040,19 @@
         <v>6749</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3760</v>
+        <v>3636</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>11147</v>
+        <v>11145</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.007556778857778984</v>
+        <v>0.007556778857778985</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.004209755258127883</v>
+        <v>0.00407121991290533</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01248120074196663</v>
+        <v>0.01247958698124028</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>17</v>
@@ -8061,19 +8061,19 @@
         <v>7910</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4603</v>
+        <v>4869</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>12309</v>
+        <v>12947</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.004932472108445681</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0028703058835859</v>
+        <v>0.003035797526317639</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.007675048029705062</v>
+        <v>0.008072924662615199</v>
       </c>
     </row>
     <row r="27">
